--- a/Injections/Injection_data.xlsx
+++ b/Injections/Injection_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Injections/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{967487A7-9C35-B84C-8D83-ED3E0014F0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1754808A-8D7C-A04D-B7C2-601EE981B088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7780" yWindow="3340" windowWidth="33400" windowHeight="17440" xr2:uid="{CF39CF1E-B8A9-F941-BE5A-B7B041D7A19C}"/>
+    <workbookView xWindow="3500" yWindow="2100" windowWidth="33400" windowHeight="17440" xr2:uid="{CF39CF1E-B8A9-F941-BE5A-B7B041D7A19C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -126,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -139,6 +139,18 @@
       <color rgb="FF000000"/>
       <name val="Monaco"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -161,12 +173,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -484,7 +498,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="A9" sqref="A9:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -785,6 +799,18 @@
       <c r="F9" s="2">
         <v>0.53333333333333333</v>
       </c>
+      <c r="G9" s="5">
+        <v>324.90537</v>
+      </c>
+      <c r="H9" s="6">
+        <v>941.04399999999998</v>
+      </c>
+      <c r="I9" s="6">
+        <v>933.97450000000003</v>
+      </c>
+      <c r="J9" s="6">
+        <v>916.76850000000002</v>
+      </c>
       <c r="N9" t="s">
         <v>9</v>
       </c>
@@ -805,6 +831,21 @@
       <c r="F10" s="2">
         <v>0.53333333333333333</v>
       </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1041.6721</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1797.6025</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1035.5003999999999</v>
+      </c>
+      <c r="K10">
+        <v>76.23</v>
+      </c>
       <c r="N10" s="4">
         <v>86100</v>
       </c>
@@ -825,6 +866,18 @@
       <c r="F11" s="2">
         <v>0.53333333333333333</v>
       </c>
+      <c r="G11" s="5">
+        <v>333.38252</v>
+      </c>
+      <c r="H11" s="6">
+        <v>458.64800000000002</v>
+      </c>
+      <c r="I11" s="6">
+        <v>991.76800000000003</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="N11" t="s">
         <v>9</v>
       </c>
@@ -844,6 +897,21 @@
       </c>
       <c r="F12" s="2">
         <v>0.53333333333333333</v>
+      </c>
+      <c r="G12" s="6">
+        <v>308.92746</v>
+      </c>
+      <c r="H12" s="6">
+        <v>883.77679999999998</v>
+      </c>
+      <c r="I12" s="6">
+        <v>1451.6188</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12">
+        <v>90.885000000000005</v>
       </c>
       <c r="N12" t="s">
         <v>27</v>
